--- a/Interview Experiences.xlsx
+++ b/Interview Experiences.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/atendrakumar/suri/study/JavaDSAlgo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05D9B9AD-930D-6D45-9383-D2EFCE1969F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FA9D8AB-CA8C-F843-91C9-71E72131E337}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="720" windowWidth="27640" windowHeight="15860" xr2:uid="{8B654988-AD29-7C4B-B99D-4F19E65FC80C}"/>
+    <workbookView xWindow="780" yWindow="720" windowWidth="27640" windowHeight="15860" activeTab="1" xr2:uid="{8B654988-AD29-7C4B-B99D-4F19E65FC80C}"/>
   </bookViews>
   <sheets>
     <sheet name="DSAlgo" sheetId="1" r:id="rId1"/>
     <sheet name="SystemDesign" sheetId="2" r:id="rId2"/>
     <sheet name="Java" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,6 +29,7 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="138">
   <si>
     <t xml:space="preserve">You’re an employee of a company and you’re given calendar days. You also have leave balance accumulated over a period of time (L). 
 Now you’re planning for a vacation. You have to find the best possible number of days that you can avail for the vacation by exhausting all the available leaves                                                                                                                                                                                                        </t>
@@ -310,6 +311,148 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/course-schedule/</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/find-possible-words-phone-digits/</t>
+  </si>
+  <si>
+    <t>VISA</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/minimum-number-of-jumps-to-reach-end-of-a-given-array/</t>
+  </si>
+  <si>
+    <t>GROUPON</t>
+  </si>
+  <si>
+    <t>VYMO, GROUPON</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/binary-tree-maximum-path-sum/</t>
+  </si>
+  <si>
+    <t>Sorting 1TB Data using 1 GB Ram | Sorting Large Data/https://www.youtube.com/watch?v=FwCO-NFMm_0&amp;ab_channel=UditAgarwal</t>
+  </si>
+  <si>
+    <t>Design Type ahead system</t>
+  </si>
+  <si>
+    <t>Design create/share/reshare/comments a post on social networking sites</t>
+  </si>
+  <si>
+    <t>Write only unique lines to out file, input file is 1 TB and system RAM is 1 GM</t>
+  </si>
+  <si>
+    <t>RELTIO</t>
+  </si>
+  <si>
+    <t>Design Book My Show</t>
+  </si>
+  <si>
+    <t>athenahealth</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/delete-a-node-from-linked-list-without-head-pointer/</t>
+  </si>
+  <si>
+    <t>GAIN SIGHT</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/problems/longest-consecutive-subsequence2449/1/?page=3&amp;curated[]=1&amp;sortBy=submissions</t>
+  </si>
+  <si>
+    <t>REPEAT</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/letter-combinations-of-a-phone-number/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/longest-common-subsequence/</t>
+  </si>
+  <si>
+    <t>GRAPHS(DFS, BFS, topollogil sorting</t>
+  </si>
+  <si>
+    <t>Circuit Breaker</t>
+  </si>
+  <si>
+    <t>What happen if consumer get error while reading the message from topic.</t>
+  </si>
+  <si>
+    <t>system design to transfer data from source database to target database</t>
+  </si>
+  <si>
+    <t>Facebook News Feed</t>
+  </si>
+  <si>
+    <t>OLA</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/task-scheduler/</t>
+  </si>
+  <si>
+    <t>bukuwarung</t>
+  </si>
+  <si>
+    <t>given a positive integer n, 3 operations subtract by 1, divide by 2 if divisible, divide by 3 if divisible
+find min steps required to reduce n to 1</t>
+  </si>
+  <si>
+    <t>CROPIN</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/min-cost-to-connect-all-points/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/search-in-rotated-sorted-array/</t>
+  </si>
+  <si>
+    <t>PAYTM, CISCO</t>
+  </si>
+  <si>
+    <t>VYMO, VMWARE</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/search-an-element-in-an-array-where-difference-between-adjacent-elements-is-1/</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/write-a-c-program-to-print-all-permutations-of-a-given-string/</t>
+  </si>
+  <si>
+    <t>VMWARE</t>
+  </si>
+  <si>
+    <t>GAINSIGHT</t>
+  </si>
+  <si>
+    <t>Design LFU https://leetcode.com/problems/lfu-cache/discuss/2049362/Java-simple-and-clean-solution-with-generic-types</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/maximum-points-you-can-obtain-from-cards/</t>
+  </si>
+  <si>
+    <t>Walmart</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/check-if-a-given-binary-tree-is-sumtree/</t>
+  </si>
+  <si>
+    <t>MicroSoft</t>
+  </si>
+  <si>
+    <t>Design Library management System</t>
+  </si>
+  <si>
+    <t>Microsoft</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/trapping-rain-water/</t>
+  </si>
+  <si>
+    <t>Desifn Build and Deployment Service</t>
+  </si>
+  <si>
+    <t>Sort 1GB data in a 100MB RAM system</t>
   </si>
 </sst>
 </file>
@@ -417,7 +560,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -441,11 +584,8 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -762,10 +902,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D65FDAA9-6602-E64B-9A42-B99D5370C29A}">
-  <dimension ref="A1:D76"/>
+  <dimension ref="A1:D135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="A59" sqref="A59"/>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="A74" sqref="A74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -994,209 +1134,446 @@
         <v>78</v>
       </c>
     </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>104</v>
+      </c>
+      <c r="B46" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="C46" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B47" s="12"/>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B48" s="12"/>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B49" s="12"/>
+    </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
+      <c r="B50" s="12"/>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B51" s="12"/>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B52" s="12"/>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C54" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>124</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C55" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>121</v>
+      </c>
+      <c r="B56" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C56" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B57" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
         <v>71</v>
       </c>
-      <c r="B50" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="C50" t="s">
+      <c r="B58" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C58" t="s">
         <v>65</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>72</v>
-      </c>
-      <c r="B51" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="C51" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>73</v>
-      </c>
-      <c r="B52" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="C52" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A53" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="B53" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A54" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B54" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A55" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B55" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A56" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B56" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A57" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B57" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="C57" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A58" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="B58" s="8" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
+        <v>73</v>
+      </c>
+      <c r="B59" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C59" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B60" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B61" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B62" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B63" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C63" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="B64" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C64" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B65" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
         <v>90</v>
       </c>
-      <c r="B59" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A64" s="13" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A65" s="14"/>
-      <c r="C65" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A66" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="B66" s="10" t="s">
-        <v>60</v>
+      <c r="B66" s="8" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A67" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="B67" s="10" t="s">
-        <v>60</v>
+      <c r="A67" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B67" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C67" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>62</v>
-      </c>
-      <c r="B68" s="10" t="s">
-        <v>60</v>
+        <v>93</v>
+      </c>
+      <c r="B68" s="8" t="s">
+        <v>58</v>
       </c>
       <c r="C68" t="s">
-        <v>63</v>
+        <v>94</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
-        <v>79</v>
-      </c>
-      <c r="B69" s="10" t="s">
-        <v>60</v>
+      <c r="A69" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="B69" s="8" t="s">
+        <v>58</v>
       </c>
       <c r="C69" t="s">
-        <v>80</v>
+        <v>117</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>88</v>
-      </c>
-      <c r="B70" s="10" t="s">
-        <v>60</v>
+        <v>120</v>
+      </c>
+      <c r="B70" s="8" t="s">
+        <v>58</v>
       </c>
       <c r="C70" t="s">
-        <v>89</v>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>64</v>
+      </c>
+      <c r="B71" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C71" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="B72" s="10" t="s">
-        <v>82</v>
+        <v>129</v>
+      </c>
+      <c r="B72" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C72" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
-        <v>83</v>
-      </c>
-      <c r="B73" s="10" t="s">
-        <v>82</v>
+      <c r="A73" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B73" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C73" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="B74" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C74" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A75" s="7"/>
+      <c r="B75" s="8"/>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B76" s="8"/>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A77" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="B77" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C77" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A78" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B78" s="10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A79" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B79" s="10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>62</v>
+      </c>
+      <c r="B80" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C80" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>79</v>
+      </c>
+      <c r="B81" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C81" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>88</v>
+      </c>
+      <c r="B82" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C82" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>96</v>
+      </c>
+      <c r="B83" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C83" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A84" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="B84" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C84" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B85" s="10"/>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B86" s="10"/>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A88" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B88" s="10" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>83</v>
+      </c>
+      <c r="B89" s="10" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A90" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="B74" s="10" t="s">
+      <c r="B90" s="10" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
         <v>85</v>
       </c>
-      <c r="B75" s="10" t="s">
+      <c r="B91" s="10" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A76" s="7" t="s">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A92" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="B76" s="10" t="s">
+      <c r="B92" s="10" t="s">
         <v>82</v>
       </c>
     </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A93" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="B93" s="10" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A131" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="B131" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>106</v>
+      </c>
+      <c r="B132" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>108</v>
+      </c>
+      <c r="B133" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A134" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="B134" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>88</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A64:A65"/>
-  </mergeCells>
   <hyperlinks>
     <hyperlink ref="A3" r:id="rId1" xr:uid="{97083343-F4BB-CD49-A365-EC0828C5A9D5}"/>
-    <hyperlink ref="A54" r:id="rId2" xr:uid="{4DEF24DE-7667-4B41-830F-7F577EF58DD4}"/>
-    <hyperlink ref="A55" r:id="rId3" xr:uid="{148B2390-20E6-3048-894B-05C2F6223C80}"/>
+    <hyperlink ref="A57" r:id="rId2" xr:uid="{4DEF24DE-7667-4B41-830F-7F577EF58DD4}"/>
+    <hyperlink ref="A61" r:id="rId3" xr:uid="{148B2390-20E6-3048-894B-05C2F6223C80}"/>
     <hyperlink ref="A7" r:id="rId4" xr:uid="{46931815-AB82-BC4C-A358-6A9AFF59E6C2}"/>
     <hyperlink ref="A9" r:id="rId5" xr:uid="{0B52612F-71AA-3B40-8202-1C5F33F25745}"/>
-    <hyperlink ref="A56" r:id="rId6" xr:uid="{ACECED7E-AACC-9349-B3AF-74A6025CAF81}"/>
+    <hyperlink ref="A62" r:id="rId6" xr:uid="{ACECED7E-AACC-9349-B3AF-74A6025CAF81}"/>
     <hyperlink ref="A11" r:id="rId7" xr:uid="{CF71F947-D849-764B-BF4E-A93277F72C07}"/>
     <hyperlink ref="A12" r:id="rId8" xr:uid="{6324E272-9B48-794B-AFAB-19C7B34BCE55}"/>
     <hyperlink ref="A13" r:id="rId9" xr:uid="{C2DA7644-AB5D-E64A-BFAC-1A545D856AFE}"/>
@@ -1221,14 +1598,23 @@
     <hyperlink ref="A29" r:id="rId28" xr:uid="{496FE22E-7A70-4442-96D9-C08E266A2B13}"/>
     <hyperlink ref="A32" r:id="rId29" xr:uid="{1C67F350-80DD-2243-B884-F318D5A39A85}"/>
     <hyperlink ref="A39" r:id="rId30" xr:uid="{CB5EE422-AB65-5844-9F80-1601CDB05D3E}"/>
-    <hyperlink ref="A53" r:id="rId31" xr:uid="{DEF563FF-5932-C74D-BFE0-63C2AA759D6B}"/>
-    <hyperlink ref="A66" r:id="rId32" xr:uid="{B50843C9-600E-C645-91C8-D48A1049E64F}"/>
-    <hyperlink ref="A64" r:id="rId33" xr:uid="{5902171C-26C1-3B46-8479-AEE352DED6CC}"/>
-    <hyperlink ref="A57" r:id="rId34" xr:uid="{C636FD51-20D2-8C40-9BCD-359604643B6D}"/>
-    <hyperlink ref="A72" r:id="rId35" xr:uid="{6E999785-A969-7949-ADA6-22E5702207B6}"/>
-    <hyperlink ref="A74" r:id="rId36" xr:uid="{33C9F830-9651-EC49-B526-545B3C80B7DA}"/>
-    <hyperlink ref="A76" r:id="rId37" xr:uid="{F73B3813-2F51-BE45-A795-EDFCA9F332A6}"/>
-    <hyperlink ref="A58" r:id="rId38" xr:uid="{FCF1EAB7-8822-6143-B83D-48CD78E9BE1D}"/>
+    <hyperlink ref="A60" r:id="rId31" xr:uid="{DEF563FF-5932-C74D-BFE0-63C2AA759D6B}"/>
+    <hyperlink ref="A78" r:id="rId32" xr:uid="{B50843C9-600E-C645-91C8-D48A1049E64F}"/>
+    <hyperlink ref="A63" r:id="rId33" xr:uid="{C636FD51-20D2-8C40-9BCD-359604643B6D}"/>
+    <hyperlink ref="A88" r:id="rId34" xr:uid="{6E999785-A969-7949-ADA6-22E5702207B6}"/>
+    <hyperlink ref="A90" r:id="rId35" xr:uid="{33C9F830-9651-EC49-B526-545B3C80B7DA}"/>
+    <hyperlink ref="A92" r:id="rId36" xr:uid="{F73B3813-2F51-BE45-A795-EDFCA9F332A6}"/>
+    <hyperlink ref="A65" r:id="rId37" xr:uid="{FCF1EAB7-8822-6143-B83D-48CD78E9BE1D}"/>
+    <hyperlink ref="A67" r:id="rId38" xr:uid="{6BE5C201-D02E-2646-BF68-FA87A10F9CCA}"/>
+    <hyperlink ref="A93" r:id="rId39" xr:uid="{011D46D0-03D3-F34B-B293-BD7E7F0B36EE}"/>
+    <hyperlink ref="A131" r:id="rId40" xr:uid="{D301A17E-DC51-3345-B5F8-A8B6827F5930}"/>
+    <hyperlink ref="A134" r:id="rId41" xr:uid="{EBB497CF-D48C-6044-8B5F-5D8E08B81291}"/>
+    <hyperlink ref="A69" r:id="rId42" xr:uid="{216B3F9C-1481-FB4D-9029-4DA732CA8A9A}"/>
+    <hyperlink ref="A54" r:id="rId43" xr:uid="{7E9FFDD6-B7B6-1C41-8C22-2CD78F0B1247}"/>
+    <hyperlink ref="A72" r:id="rId44" xr:uid="{8D52D521-276B-844A-B2C5-5755D41FF1B1}"/>
+    <hyperlink ref="A73" r:id="rId45" xr:uid="{DAD43787-975B-5B4F-8180-EE5B612F7BB1}"/>
+    <hyperlink ref="A74" r:id="rId46" xr:uid="{3319F045-D457-5843-A787-2AAAE4A23294}"/>
+    <hyperlink ref="A77" r:id="rId47" xr:uid="{9B2C3C04-1A7D-3944-AC4F-518C2219984E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1236,10 +1622,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{665E06C2-0F87-C94F-AC80-081D137F2C95}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1282,6 +1668,17 @@
         <v>75</v>
       </c>
     </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>128</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D5" t="s">
+        <v>94</v>
+      </c>
+    </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>76</v>
@@ -1293,6 +1690,117 @@
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>97</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>100</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>98</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>99</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>102</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>112</v>
+      </c>
+      <c r="D16" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>114</v>
+      </c>
+      <c r="D17" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>133</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D19" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>136</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>137</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D21" t="s">
+        <v>134</v>
       </c>
     </row>
   </sheetData>

--- a/Interview Experiences.xlsx
+++ b/Interview Experiences.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/atendrakumar/suri/study/JavaDSAlgo/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aduve/suri/study/JavaDSAlgo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FA9D8AB-CA8C-F843-91C9-71E72131E337}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E159EAD0-8E23-3542-9B12-67D53E93E0A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="720" windowWidth="27640" windowHeight="15860" activeTab="1" xr2:uid="{8B654988-AD29-7C4B-B99D-4F19E65FC80C}"/>
+    <workbookView xWindow="780" yWindow="760" windowWidth="27640" windowHeight="15860" activeTab="3" xr2:uid="{8B654988-AD29-7C4B-B99D-4F19E65FC80C}"/>
   </bookViews>
   <sheets>
     <sheet name="DSAlgo" sheetId="1" r:id="rId1"/>
     <sheet name="SystemDesign" sheetId="2" r:id="rId2"/>
     <sheet name="Java" sheetId="3" r:id="rId3"/>
+    <sheet name="Google" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="150">
   <si>
     <t xml:space="preserve">You’re an employee of a company and you’re given calendar days. You also have leave balance accumulated over a period of time (L). 
 Now you’re planning for a vacation. You have to find the best possible number of days that you can avail for the vacation by exhausting all the available leaves                                                                                                                                                                                                        </t>
@@ -453,6 +454,42 @@
   </si>
   <si>
     <t>Sort 1GB data in a 100MB RAM system</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/discuss/interview-question/1566515/GoogleorOnsiteorBusiest-meeting-room/1143254</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/generate-parentheses/</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> https://practice.geeksforgeeks.org/problems/allocate-minimum-number-of-pages0937/1</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/number-of-closed-islands/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/split-array-largest-sum/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/range-sum-of-bst/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/capacity-to-ship-packages-within-d-days/</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/the-celebrity-problem/</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/problems/find-first-and-last-occurrence-of-x0849/1</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/discuss/interview-question/701938/google-max-sum-of-k-elements</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Below Are the questions I had prepared </t>
+  </si>
+  <si>
+    <t>Below are 4 questions asked from me in Google</t>
   </si>
 </sst>
 </file>
@@ -905,7 +942,7 @@
   <dimension ref="A1:D135"/>
   <sheetViews>
     <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="A74" sqref="A74"/>
+      <selection activeCell="A80" sqref="A80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1411,7 +1448,7 @@
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A80" t="s">
+      <c r="A80" s="7" t="s">
         <v>62</v>
       </c>
       <c r="B80" s="10" t="s">
@@ -1615,6 +1652,7 @@
     <hyperlink ref="A73" r:id="rId45" xr:uid="{DAD43787-975B-5B4F-8180-EE5B612F7BB1}"/>
     <hyperlink ref="A74" r:id="rId46" xr:uid="{3319F045-D457-5843-A787-2AAAE4A23294}"/>
     <hyperlink ref="A77" r:id="rId47" xr:uid="{9B2C3C04-1A7D-3944-AC4F-518C2219984E}"/>
+    <hyperlink ref="A80" r:id="rId48" xr:uid="{4EA95C40-9B04-5748-95DF-6557D0E9C560}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1624,7 +1662,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{665E06C2-0F87-C94F-AC80-081D137F2C95}">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
@@ -1886,4 +1924,99 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2A14B93-892F-AA44-A11A-7767886BD639}">
+  <dimension ref="A1:A17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="143.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" s="7" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" s="7" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" s="7" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" s="7" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" s="7" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15" s="7" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16" s="7" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="7" t="s">
+        <v>141</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{1D775597-159B-A64F-902D-6253E63A41D4}"/>
+    <hyperlink ref="A3" r:id="rId2" xr:uid="{098BB421-47C5-C744-B808-E0518458F302}"/>
+    <hyperlink ref="A5" r:id="rId3" xr:uid="{341E3827-EBFA-734C-9DCD-B34AF381914A}"/>
+    <hyperlink ref="A17" r:id="rId4" xr:uid="{8E9C6807-BF2B-7144-99C0-77BE57F1024E}"/>
+    <hyperlink ref="A11" r:id="rId5" xr:uid="{CA6DA9B9-32EE-1E48-800C-3F43920B077D}"/>
+    <hyperlink ref="A12" r:id="rId6" xr:uid="{8876F37C-8948-4B45-915E-5EC9C75BAFCB}"/>
+    <hyperlink ref="A13" r:id="rId7" xr:uid="{7E1AAFE8-D9A2-E147-846F-94460E12023C}"/>
+    <hyperlink ref="A14" r:id="rId8" xr:uid="{44E67875-EF3A-2A48-B447-2642A6D6F23A}"/>
+    <hyperlink ref="A15" r:id="rId9" xr:uid="{F177C85C-F3B7-D44E-9427-F39F0CAE1130}"/>
+    <hyperlink ref="A16" r:id="rId10" xr:uid="{4EF17907-9062-CB45-8205-EBA787ADFEAA}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>